--- a/data/TC04_MergeLead.xlsx
+++ b/data/TC04_MergeLead.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Action</t>
   </si>
@@ -51,10 +51,13 @@
     <t>ToLead</t>
   </si>
   <si>
-    <t>10008</t>
-  </si>
-  <si>
-    <t>10099</t>
+    <t>Verify Text</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>10020</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +420,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -430,8 +433,11 @@
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -439,14 +445,18 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
